--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_LSPMW_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_LSPMW_No_lineal_Estacionario_SETAR.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.3170061291620551</v>
+        <v>-0.3164144733447235</v>
       </c>
       <c r="D2">
-        <v>0.7512783634522449</v>
+        <v>0.7546706271312429</v>
       </c>
       <c r="E2">
         <v>0.6599565455007916</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.1180646025598435</v>
+        <v>-0.1114297882184288</v>
       </c>
       <c r="D3">
-        <v>0.9060305924775183</v>
+        <v>0.9122859279064721</v>
       </c>
       <c r="E3">
         <v>0.6599565455007916</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.8645789356527684</v>
+        <v>-0.7345520746105022</v>
       </c>
       <c r="D4">
-        <v>0.3873934405572856</v>
+        <v>0.4703700354543763</v>
       </c>
       <c r="E4">
         <v>0.6599565455007916</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-0.3508726689223993</v>
+        <v>-0.2961244517092343</v>
       </c>
       <c r="D5">
-        <v>0.7257278948142061</v>
+        <v>0.7699123115987083</v>
       </c>
       <c r="E5">
         <v>0.6599565455007916</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.2234604205234776</v>
+        <v>0.2310234292671358</v>
       </c>
       <c r="D6">
-        <v>0.8232043682773516</v>
+        <v>0.8194316042476113</v>
       </c>
       <c r="E6">
         <v>0.6698158725900961</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-0.4958895495695607</v>
+        <v>-0.7353370720682859</v>
       </c>
       <c r="D7">
-        <v>0.6200372422704596</v>
+        <v>0.4699015092556484</v>
       </c>
       <c r="E7">
         <v>0.6698158725900961</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>0.0002893636971009143</v>
+        <v>0.0002650417432753094</v>
       </c>
       <c r="D8">
-        <v>0.9997691555517194</v>
+        <v>0.9997909159681173</v>
       </c>
       <c r="E8">
         <v>0.6698158725900961</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.8682396387064083</v>
+        <v>-0.8463954232197843</v>
       </c>
       <c r="D9">
-        <v>0.3853872399509624</v>
+        <v>0.4064450057275668</v>
       </c>
       <c r="E9">
         <v>0.6628647798664178</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.2498625867946146</v>
+        <v>-0.1865365646018382</v>
       </c>
       <c r="D10">
-        <v>0.8027241832231831</v>
+        <v>0.8537334251055884</v>
       </c>
       <c r="E10">
         <v>0.6628647798664178</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>0.443370954536314</v>
+        <v>0.3877730883822951</v>
       </c>
       <c r="D11">
-        <v>0.6575545644973726</v>
+        <v>0.7019104481126832</v>
       </c>
       <c r="E11">
         <v>0.6830957451532297</v>
